--- a/data/hotels_by_city/Houston/Houston_shard_355.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_355.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d8606295-Reviews-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Houston-NE-Bush-Airport-Area.h12021054.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531324185567&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=c070f780-493a-418e-b1df-40eef11a5234&amp;mctc=9&amp;exp_dp=110&amp;exp_ts=1531324186181&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,645 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r600592832-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>8606295</t>
+  </si>
+  <si>
+    <t>600592832</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Mixed Bag This Trip - Internet Issues Killed Me</t>
+  </si>
+  <si>
+    <t>This was not my best stay here.  Just before I got here their systems went down and we didn't have internet all evening.  This really affected me since I was here for business and I had things I had to get done but couldn't and had to deal with the ramifications the next day.
+I know it wasn't their fault but it did affect me greatly.  Still I think they knew at 4 or 5 PM that it would be down and I could have went to another Holiday Inn.  They kept saying it would be up in an hour and it was rebooting.  I did get a hand written message from the sales manager asking if there was anything they could do.  Well, other than buying my dinner or more drink cards no I needed internet.
+The room is nice and well equipped.  The shower is nice and great pressure.  The bed was firm but I like that.  Good choices of pillows.  Cable TV selections are below average but normal for hotels.  It was important this time since I didn't have Internet so the lack of channels really hurt.  Only thing I hate is the AC vent is up super high and blows right own you on your bed.  I had to drag a small setting table over to stand on it to try and adjust where it was blow.  I was marginally successful.
+The hotel is close to...This was not my best stay here.  Just before I got here their systems went down and we didn't have internet all evening.  This really affected me since I was here for business and I had things I had to get done but couldn't and had to deal with the ramifications the next day.I know it wasn't their fault but it did affect me greatly.  Still I think they knew at 4 or 5 PM that it would be down and I could have went to another Holiday Inn.  They kept saying it would be up in an hour and it was rebooting.  I did get a hand written message from the sales manager asking if there was anything they could do.  Well, other than buying my dinner or more drink cards no I needed internet.The room is nice and well equipped.  The shower is nice and great pressure.  The bed was firm but I like that.  Good choices of pillows.  Cable TV selections are below average but normal for hotels.  It was important this time since I didn't have Internet so the lack of channels really hurt.  Only thing I hate is the AC vent is up super high and blows right own you on your bed.  I had to drag a small setting table over to stand on it to try and adjust where it was blow.  I was marginally successful.The hotel is close to the airport (11 minutes) but nothing much to do or see unless you want to drive.  My first experience here was much better.  This stay was below average and really affected me.  Again, things happen.  I'll decide if I want to stay here next time when it comes up for me to travel to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This was not my best stay here.  Just before I got here their systems went down and we didn't have internet all evening.  This really affected me since I was here for business and I had things I had to get done but couldn't and had to deal with the ramifications the next day.
+I know it wasn't their fault but it did affect me greatly.  Still I think they knew at 4 or 5 PM that it would be down and I could have went to another Holiday Inn.  They kept saying it would be up in an hour and it was rebooting.  I did get a hand written message from the sales manager asking if there was anything they could do.  Well, other than buying my dinner or more drink cards no I needed internet.
+The room is nice and well equipped.  The shower is nice and great pressure.  The bed was firm but I like that.  Good choices of pillows.  Cable TV selections are below average but normal for hotels.  It was important this time since I didn't have Internet so the lack of channels really hurt.  Only thing I hate is the AC vent is up super high and blows right own you on your bed.  I had to drag a small setting table over to stand on it to try and adjust where it was blow.  I was marginally successful.
+The hotel is close to...This was not my best stay here.  Just before I got here their systems went down and we didn't have internet all evening.  This really affected me since I was here for business and I had things I had to get done but couldn't and had to deal with the ramifications the next day.I know it wasn't their fault but it did affect me greatly.  Still I think they knew at 4 or 5 PM that it would be down and I could have went to another Holiday Inn.  They kept saying it would be up in an hour and it was rebooting.  I did get a hand written message from the sales manager asking if there was anything they could do.  Well, other than buying my dinner or more drink cards no I needed internet.The room is nice and well equipped.  The shower is nice and great pressure.  The bed was firm but I like that.  Good choices of pillows.  Cable TV selections are below average but normal for hotels.  It was important this time since I didn't have Internet so the lack of channels really hurt.  Only thing I hate is the AC vent is up super high and blows right own you on your bed.  I had to drag a small setting table over to stand on it to try and adjust where it was blow.  I was marginally successful.The hotel is close to the airport (11 minutes) but nothing much to do or see unless you want to drive.  My first experience here was much better.  This stay was below average and really affected me.  Again, things happen.  I'll decide if I want to stay here next time when it comes up for me to travel to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r592746474-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>592746474</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfectly fine hotel for extended layover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My daughter and I stayed one night when we had a long layover prior to an international flight. Located very close to the airport but seems to be a hard location for Uber drivers to find. If we had been more patient we could have just taken the airport shuttle. It departs every 30 minutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r584907997-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>584907997</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Layover Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had an overnight layover in Houston and this hotel was everything we expected.  Plane landed around 8 pm, called for the hotel shuttle service and they were there within 10 minutes. Hotel staff were super nice and professional. We were hungry and ate at the bar/restaurant and the food was good. The bartender was nice and helpful. Our two queen beds were very comfortable and room was nice size with walk in shower.  Everything was very clean. The shuttle leaves every 30 minutes in the morning starting  at 5 a.m.  I did not see the pool so cannot comment on that.  I would def stay here again! </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r569968378-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>569968378</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>New Hotel close to airport</t>
+  </si>
+  <si>
+    <t>New hotel close to Bush. This was not the Holiday Inn that I meant to stay at but that was my mistake. When I asked about what time the shuttle would start and was told it didn't start until sometime after 0500 I knew we had a problem. However the parking lot where we were leaving the truck was right across the street and their shuttle took care of that problem.Nice hotel, nice room and the staff were friendly and helpful. The menu in the lounge was a little bit limited but we managedMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>New hotel close to Bush. This was not the Holiday Inn that I meant to stay at but that was my mistake. When I asked about what time the shuttle would start and was told it didn't start until sometime after 0500 I knew we had a problem. However the parking lot where we were leaving the truck was right across the street and their shuttle took care of that problem.Nice hotel, nice room and the staff were friendly and helpful. The menu in the lounge was a little bit limited but we managedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r567365334-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>567365334</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>No smile with our service</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to a friend as it was new and had a 3+ rating. Rooms are nice, but maids didn't show up everyday, was never greeted when coming in and out of hotel and you Do walk right by the desk, bartender acted like I put him out to make a drink when no one else was in the bar, and I asked for extra olives, he reached in my drink with his bare hand to show me a stick with Two whole olives on it.....for this type of service I might as well gone to a much cheaper hotel in the same areaMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to a friend as it was new and had a 3+ rating. Rooms are nice, but maids didn't show up everyday, was never greeted when coming in and out of hotel and you Do walk right by the desk, bartender acted like I put him out to make a drink when no one else was in the bar, and I asked for extra olives, he reached in my drink with his bare hand to show me a stick with Two whole olives on it.....for this type of service I might as well gone to a much cheaper hotel in the same areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r566414866-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>566414866</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel for businness stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for about 2 weeks, the personnel was friendly and very helpful. The room was clean and tidy. Of course there is nothing around the hotel to do. I was using the gym everyday.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r555363794-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>555363794</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>New and fresh</t>
+  </si>
+  <si>
+    <t>Awesome hotel. I have been in several hotels in the area however this place is great. I am not sure the exact age of the building however it looks and feels brand new. I totally enjoyed the dat and restaurant and the staff were wonderful.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r554050525-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>554050525</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION SUPERB DECOR</t>
+  </si>
+  <si>
+    <t>Came to town to surprise my mom and chose this location. I almost booked a different location until I saw the pics. I was glad I stayed here the lobby is stunning and sheik and the rooms are very modern! The bar was a welcoming place after the bustle of flying in. This location is literally around the corner from IAH, I59 and conveniently located near Deerbrook Mall and any restaurant you could possibly think of. If you're traveling to the city and need a place to stay on the north end don't consider just book here!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Came to town to surprise my mom and chose this location. I almost booked a different location until I saw the pics. I was glad I stayed here the lobby is stunning and sheik and the rooms are very modern! The bar was a welcoming place after the bustle of flying in. This location is literally around the corner from IAH, I59 and conveniently located near Deerbrook Mall and any restaurant you could possibly think of. If you're traveling to the city and need a place to stay on the north end don't consider just book here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r551614577-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>551614577</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Well Furnished</t>
+  </si>
+  <si>
+    <t>Great bed! I booked a King Leisure room.  I've stayed in many hotel airports that had no where to eat room service, or place to sit other than bed. This room was wonderful. Large desk, a nice chaise lounge with side table and reading lamp.  TV swiveled so you could see it from anywhere you sat in the room. Bench for suitcase, or sitting to put on shoes. Large closet. Only thing is was missing was a luggage rack in the closet. I didn't want to wake up and get out of the bed. It was so comfortable, and I'm finding I love Holiday Inns pillows- they provide 2 soft and 2 firm.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Great bed! I booked a King Leisure room.  I've stayed in many hotel airports that had no where to eat room service, or place to sit other than bed. This room was wonderful. Large desk, a nice chaise lounge with side table and reading lamp.  TV swiveled so you could see it from anywhere you sat in the room. Bench for suitcase, or sitting to put on shoes. Large closet. Only thing is was missing was a luggage rack in the closet. I didn't want to wake up and get out of the bed. It was so comfortable, and I'm finding I love Holiday Inns pillows- they provide 2 soft and 2 firm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r540594046-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>540594046</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Best IHG property at IAH</t>
+  </si>
+  <si>
+    <t>I go to Houston on business every quarter and have for years.  I have stayed at every Hilton and IHG property around George Bush Intercontinental Airport.  This hotel is the best I have found.  It is brand new.  Impeccably clean with lots of well thought out in room features like a built in luggage rack and plenty of hooks to hang clothing or a toiletry bag/  Room has a ceiling fan!!  You don't see those very often.  Infinitely practical for hot humid Houston.  Very spacious and well lit. I had one problem with the lights in my room.  Someone was at my door to fix it in less than 5 minutes.  Turned out it was my error.  Lights were fine.  Maintenance service almost unbelievably good.  Restaurant in hotel is good.  Friendly staff.  Nice lobby. Plenty of free parking.  Very close to airport.  Free airport shuttle.  Quiet rooms.  Extraordinarily comfortable bed.  Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I go to Houston on business every quarter and have for years.  I have stayed at every Hilton and IHG property around George Bush Intercontinental Airport.  This hotel is the best I have found.  It is brand new.  Impeccably clean with lots of well thought out in room features like a built in luggage rack and plenty of hooks to hang clothing or a toiletry bag/  Room has a ceiling fan!!  You don't see those very often.  Infinitely practical for hot humid Houston.  Very spacious and well lit. I had one problem with the lights in my room.  Someone was at my door to fix it in less than 5 minutes.  Turned out it was my error.  Lights were fine.  Maintenance service almost unbelievably good.  Restaurant in hotel is good.  Friendly staff.  Nice lobby. Plenty of free parking.  Very close to airport.  Free airport shuttle.  Quiet rooms.  Extraordinarily comfortable bed.  Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r540041394-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>540041394</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>nice hotel , very close to airport</t>
+  </si>
+  <si>
+    <t>We were on our way home and spent the night here because it was close to the airport . Everything is new , hotel just one year old. The bed and pillows were very comfortable . Nicely decorated . Beautiful room. Only complaint was the restaurant , the breakfast was not good and the waitress not very friendly. If I stay again I will go out to dine</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r539153707-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>539153707</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Modern and clean, but terrible service</t>
+  </si>
+  <si>
+    <t>I stayed there from Friday 11/3 to 11/5.On Saturday I left at 10am and came back at 3pm, and my room wasn't cleaned. I called the front desk and told them, and I said I will be leaving at 5pm again. The front desk said they would send someone after 5pm. No one came and cleaned, and when I told them the next day there was no apology either.The breakfast is just okay, more variety is needed. The wifi did not work at all in the room. The TV didn't either. Air Con is very noisy.It a beautiful looking hotel and very clean, but the people at the front desk need classes on customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there from Friday 11/3 to 11/5.On Saturday I left at 10am and came back at 3pm, and my room wasn't cleaned. I called the front desk and told them, and I said I will be leaving at 5pm again. The front desk said they would send someone after 5pm. No one came and cleaned, and when I told them the next day there was no apology either.The breakfast is just okay, more variety is needed. The wifi did not work at all in the room. The TV didn't either. Air Con is very noisy.It a beautiful looking hotel and very clean, but the people at the front desk need classes on customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r534968537-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>534968537</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>This is a new hotel and it’s located near the airport but unbelievably quite. Very clean amazing bathrooms and comfortable beds. It has a ton of plug ins for computers and phone. This will be my go to stay when in Humble. The restaurant food was good but I did not feel for the cost of the breakfast buffet it was worth the money. Which is like 11.00. We had to wait on food to be cooked and you get more a selection with The Holiday Inn Express locations. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Public Relations Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel and it’s located near the airport but unbelievably quite. Very clean amazing bathrooms and comfortable beds. It has a ton of plug ins for computers and phone. This will be my go to stay when in Humble. The restaurant food was good but I did not feel for the cost of the breakfast buffet it was worth the money. Which is like 11.00. We had to wait on food to be cooked and you get more a selection with The Holiday Inn Express locations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r534181381-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>534181381</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Houston NE is clean, colorful, modern and just a good hotel at an airport</t>
+  </si>
+  <si>
+    <t>Holiday Inn Houston NE is clean, colorful, modern and just a good hotel at an airport.The rooms are clean, the bathroom modern well lit and easy to maneuver.  There's a convenient shuttle bus to and from the airport and can get busy in the morning's so get down there early to garner a seat.  The room is a nice size with a separate table and 2 chairs to sit down and eat.  The TV is big as the counter it sits on.  The mirrors are of good size and there's a coffee/tea shelf.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Houston NE is clean, colorful, modern and just a good hotel at an airport.The rooms are clean, the bathroom modern well lit and easy to maneuver.  There's a convenient shuttle bus to and from the airport and can get busy in the morning's so get down there early to garner a seat.  The room is a nice size with a separate table and 2 chairs to sit down and eat.  The TV is big as the counter it sits on.  The mirrors are of good size and there's a coffee/tea shelf.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r533263075-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>533263075</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn-Upscale</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is so nice that all others pale in comparison. We stayed there the night before my husband and I left for separate trips. They were so nice &amp; accommodating and got us the terminal on time and they are all very friendly. The restaurant is very helpful and made a grilled chicken salad that I could eat so I was happy. The front desk took my information so they would know when I was returning and could pick me up. The second night I was there, I was waiting for my spouse to fly in the next day and they kept me company. Eating alone is not my favorite but it was comfortable. This location is really attractive and reminded me of a higher level of hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is so nice that all others pale in comparison. We stayed there the night before my husband and I left for separate trips. They were so nice &amp; accommodating and got us the terminal on time and they are all very friendly. The restaurant is very helpful and made a grilled chicken salad that I could eat so I was happy. The front desk took my information so they would know when I was returning and could pick me up. The second night I was there, I was waiting for my spouse to fly in the next day and they kept me company. Eating alone is not my favorite but it was comfortable. This location is really attractive and reminded me of a higher level of hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r508499563-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>508499563</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Short but good</t>
+  </si>
+  <si>
+    <t>Stayed here only to get some sleep between flights and it was very comfortable and convenient.The shuttle collected us from the airport and dropped us back.The beds were great and the sleep peaceful. It was a good idea to stay there.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r504939578-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>504939578</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Great new property</t>
+  </si>
+  <si>
+    <t>New property, super clean rooms, close to airport, on site restraunt was good as well. Had been staying at properties on JFK Blvd and you can't beat this one on price or expectations. My new spot when I stay at the airport.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r504806334-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>504806334</t>
+  </si>
+  <si>
+    <t>Wow!! We love this place!</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels with the best service we have stayed in!!--&amp; we have traveled the world and stayed in spectacular hotels! From the minute we checked in to our check out, everything was handled in an accommodating and caring way!! The food was delicious! All of the needs of our conference attendees and presenters were fulfilled--even with our last minute changes. The rooms were spotlessly clean and most comfortable. Loved the bed!! We HIGHLY recommend staying in this hotel!! You will enjoy it!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r490782278-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>490782278</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Wow, great!</t>
+  </si>
+  <si>
+    <t>Well, it's new, has great employees, and of course is spotlessly clean and comfy. Notably, it appears on the map as close to the flight paths of the runways but we didn't hear a thing and slept soundly all night. About a hundred bucks. I can also say they did a great job of free shuttle transportation to and from Bush Intercontinental Airport. WORTH IT!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r489810440-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>489810440</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceeded expectations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a flight cancellation at the end of an 8 day trip, United rebooked my family and gave us vouchers for this hotel.  This hotel lifted our spirits and exceeded expectations in every category!  The overloaded man checking in a van full of voucher holders not only kept his cool, he honored a returning soldier last in line!  The restaurant was friendly, the rooms comfortable and clean, and the staff excellent. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r489639209-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>489639209</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Great overnighter at Houston George Bush Internationall Airport</t>
+  </si>
+  <si>
+    <t>We were very pleased with this hotel. Arriving from the UK we wanted an overnight stop before we embarked on a road trip in the USA.One comment before I review, Trip Advisor seemed determined to show me another Holiday Inn for Houston international airport, so I hope fellow travellers get the opportunity to find this one.It is very convenient for the Airport, just a few minutes away. It runs pretty late, but if you are going to be late I suggest you contact the hotel beforehand. They are very helpful.The hotel is pretty new, about 12 months old, so everything was fresh and clean.My wife loved the towels.The rooms were comfortable and we liked the 'wet room' style shower.The restaurant was a nice good value restaurant with pleasant, helpful, servers.I give this 5 stars as an airport hotel and recommend it wholeheartedly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very pleased with this hotel. Arriving from the UK we wanted an overnight stop before we embarked on a road trip in the USA.One comment before I review, Trip Advisor seemed determined to show me another Holiday Inn for Houston international airport, so I hope fellow travellers get the opportunity to find this one.It is very convenient for the Airport, just a few minutes away. It runs pretty late, but if you are going to be late I suggest you contact the hotel beforehand. They are very helpful.The hotel is pretty new, about 12 months old, so everything was fresh and clean.My wife loved the towels.The rooms were comfortable and we liked the 'wet room' style shower.The restaurant was a nice good value restaurant with pleasant, helpful, servers.I give this 5 stars as an airport hotel and recommend it wholeheartedly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r470437375-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>470437375</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>New, convenient, good service and restaurant</t>
+  </si>
+  <si>
+    <t>We needed to stay overnight at the Houston/Bush Airport to continue our journey to Roatan, Honduras.I selected this hotel because of its reasonable rates and the fact that it had a restaurant, since we would not have a car.The hotel was nice and new, everyone we met was helpful, and the restaurant food was excellent.  I had the steak salad, which was really good.We especially appreciated the airport shuttle and the driver.  He was prompt in picking us up at the airport and drove the shuttle every half hour in the morning back to the airport.  He gave correct advice on which shuttle time would work best. It's a short ride to the airport and very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We needed to stay overnight at the Houston/Bush Airport to continue our journey to Roatan, Honduras.I selected this hotel because of its reasonable rates and the fact that it had a restaurant, since we would not have a car.The hotel was nice and new, everyone we met was helpful, and the restaurant food was excellent.  I had the steak salad, which was really good.We especially appreciated the airport shuttle and the driver.  He was prompt in picking us up at the airport and drove the shuttle every half hour in the morning back to the airport.  He gave correct advice on which shuttle time would work best. It's a short ride to the airport and very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r462131250-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>462131250</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Refreshing Stay!</t>
+  </si>
+  <si>
+    <t>Flew into Houston at the Bush Intercontinental Airport in the evening hours and this brand new chic Holiday Inn was such a refreshment. They offer curbside pick up at the airport, but you do have to call the hotel when you land. The hotel is very clean, fresh and pretty. There is a restaurant and bar to grab a bite for a wonderful convenience. The service and food was great! Our room was very nice and well appointed. It felt and looked so upscale. The shower/bath was light and bright and the bed and pillows were very comfy. The room offered a coffee station  and a refrigerator along with the other dependable amenities found in a Holiday Inn. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Jim M, General Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Flew into Houston at the Bush Intercontinental Airport in the evening hours and this brand new chic Holiday Inn was such a refreshment. They offer curbside pick up at the airport, but you do have to call the hotel when you land. The hotel is very clean, fresh and pretty. There is a restaurant and bar to grab a bite for a wonderful convenience. The service and food was great! Our room was very nice and well appointed. It felt and looked so upscale. The shower/bath was light and bright and the bed and pillows were very comfy. The room offered a coffee station  and a refrigerator along with the other dependable amenities found in a Holiday Inn. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r458954932-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>458954932</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Brand new and very close to airport!</t>
+  </si>
+  <si>
+    <t>Spent a night here before traveling to Mexico the following day. The hotel is brand new and the rooms are comfortable, we furnished and functional.  The hotel boasts a modern decor with a nice bar/restaurant and very nice staff.  Nice stay, only complaint was a very average burger at the bar, but the bartender was first rate and very personable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Spent a night here before traveling to Mexico the following day. The hotel is brand new and the rooms are comfortable, we furnished and functional.  The hotel boasts a modern decor with a nice bar/restaurant and very nice staff.  Nice stay, only complaint was a very average burger at the bar, but the bartender was first rate and very personable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r449685699-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>449685699</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel</t>
+  </si>
+  <si>
+    <t>Wow. What a find. This is a newer holiday inn. It's beautiful. Clean, well decorated and amazing. Staff is awesome, rooms were spotless. I am a spire elite ihg member and was upgraded to a suite. Huge walk in shower, super comfortable bed, huge ceiling fan. The rate was unbelievable as well. Will definitely stay here again...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r442767645-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>442767645</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel IHG jewel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very quick stay overact and his nice new hotel. The staff was awesome. Room was very nice had everything you need. Food from restaurant was darn good. Got in 10pm on a Sunday got food in 15 min. Great job from beginning to end. I'm a happy Spire customer after this trip. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r438874774-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>438874774</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Shiny &amp; New</t>
+  </si>
+  <si>
+    <t>This hotel is so new that we had to ask to have the fold out bed unpacked from its transit bolts and packaging.We had a 1 bedroom suite, which was absolutely fantastic. You could easily live in it. As the hotel has only been open for 3 months there is nothing to criticise.The Texan welcome is strong. All the staff are helpful and courteous.All the public areas are beautiful.I hope to visit again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r437631440-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>437631440</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>This new hotel is conveniently located near IAH and offers a shuttle to and from the airport. The rooms are impeccable and the staff warm and welcoming. The beauty of this hotel is the onsite restaurant. Food is a little pricy, but well prepared and of good variety. I will continue to use this hotel in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r437582424-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>437582424</t>
+  </si>
+  <si>
+    <t>New Hotel only 3 months</t>
+  </si>
+  <si>
+    <t>It recently open (3 month ago) so all rooms are super nice and clean. Very close to airport. Shuttle service to Bush International and Free WiFi. They also have a small restaurant. Walking distance there is also a Burger King</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r436545750-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>436545750</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>A few things you should know</t>
+  </si>
+  <si>
+    <t>This is a clean, and very new hotel. It still has that "new car smell", and is a clean and tidy property. We found the staff friendly and helpful too. Three things, however, you should know when booking here.First, getting the shuttle can be a little tricky. You are best advised to call this property when you land, and ask them to send a shuttle. Also - you need to know your arrival gate (A, B, C etc) otherwise it may go to the wrong place! Frustratingly, not every Holiday Inn shuttle will bring you here - the other properties are in a different direction.Secondly, there is no liquor licence here. That may not affect you, but if you want a beer with dinner you have to walk down the road to the service station and buy one. Apparently an application has been made for a licence. Thirdly, the location is really on its own, far from anywhere but long term car parking lots. Apart from the service station you will really be limited to the hotel - which isn't really an issue for an airport overnight stay. Another benefit is that it is an underpopulated property at the moment,so no problem getting a treadmill in the gym! Hope these tips help if you are considering staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a clean, and very new hotel. It still has that "new car smell", and is a clean and tidy property. We found the staff friendly and helpful too. Three things, however, you should know when booking here.First, getting the shuttle can be a little tricky. You are best advised to call this property when you land, and ask them to send a shuttle. Also - you need to know your arrival gate (A, B, C etc) otherwise it may go to the wrong place! Frustratingly, not every Holiday Inn shuttle will bring you here - the other properties are in a different direction.Secondly, there is no liquor licence here. That may not affect you, but if you want a beer with dinner you have to walk down the road to the service station and buy one. Apparently an application has been made for a licence. Thirdly, the location is really on its own, far from anywhere but long term car parking lots. Apart from the service station you will really be limited to the hotel - which isn't really an issue for an airport overnight stay. Another benefit is that it is an underpopulated property at the moment,so no problem getting a treadmill in the gym! Hope these tips help if you are considering staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r406610342-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>406610342</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>New location, bad service and standard response from General Manager</t>
+  </si>
+  <si>
+    <t>I booked this Hotel as I had an overnight stop before connecting out of the USA. Attractive point for me when booking was the Hotel airport shuttle. Wrote to the Hotel before arrival and having responded to the Hotels request for my arrival date and flight details, got a response to call the Hotel on arrival. Like most non-US travellers I do not have a US phone, so I guess this Hotel only wants domestic bookings! Got to Houston at around 10.30pm and waited for 30 minutes for the shuttle BUT it did not show, so I took a cab. (BTW the cheapy half the price motel shuttles were all passing frequently). Got to the Hotel, one man working on the reception, with no baggage handling help .... this bit realy impressed me after a +30 hour flight. The best part of all though was yet to come, when I wrote to the Hotel with the above observations, and got a standard reply pointing out that the Hotel shuttle only runs from 5am-11pm (hello I was waiting for your at 10.30pm JIM) and that most US Holiday Inns do not have a bellman. Great show of interpersonal communication skills there from the General Manager, erm and NO Jim I shall not be staying in your low customer service hotel again, when you are charging a room rate that should guarantee a GREAT customer service. Avoid this hotel people as they...I booked this Hotel as I had an overnight stop before connecting out of the USA. Attractive point for me when booking was the Hotel airport shuttle. Wrote to the Hotel before arrival and having responded to the Hotels request for my arrival date and flight details, got a response to call the Hotel on arrival. Like most non-US travellers I do not have a US phone, so I guess this Hotel only wants domestic bookings! Got to Houston at around 10.30pm and waited for 30 minutes for the shuttle BUT it did not show, so I took a cab. (BTW the cheapy half the price motel shuttles were all passing frequently). Got to the Hotel, one man working on the reception, with no baggage handling help .... this bit realy impressed me after a +30 hour flight. The best part of all though was yet to come, when I wrote to the Hotel with the above observations, and got a standard reply pointing out that the Hotel shuttle only runs from 5am-11pm (hello I was waiting for your at 10.30pm JIM) and that most US Holiday Inns do not have a bellman. Great show of interpersonal communication skills there from the General Manager, erm and NO Jim I shall not be staying in your low customer service hotel again, when you are charging a room rate that should guarantee a GREAT customer service. Avoid this hotel people as they have no idea of guest relations. You can do much better elsewhere in Houston, as I shall next time!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I booked this Hotel as I had an overnight stop before connecting out of the USA. Attractive point for me when booking was the Hotel airport shuttle. Wrote to the Hotel before arrival and having responded to the Hotels request for my arrival date and flight details, got a response to call the Hotel on arrival. Like most non-US travellers I do not have a US phone, so I guess this Hotel only wants domestic bookings! Got to Houston at around 10.30pm and waited for 30 minutes for the shuttle BUT it did not show, so I took a cab. (BTW the cheapy half the price motel shuttles were all passing frequently). Got to the Hotel, one man working on the reception, with no baggage handling help .... this bit realy impressed me after a +30 hour flight. The best part of all though was yet to come, when I wrote to the Hotel with the above observations, and got a standard reply pointing out that the Hotel shuttle only runs from 5am-11pm (hello I was waiting for your at 10.30pm JIM) and that most US Holiday Inns do not have a bellman. Great show of interpersonal communication skills there from the General Manager, erm and NO Jim I shall not be staying in your low customer service hotel again, when you are charging a room rate that should guarantee a GREAT customer service. Avoid this hotel people as they...I booked this Hotel as I had an overnight stop before connecting out of the USA. Attractive point for me when booking was the Hotel airport shuttle. Wrote to the Hotel before arrival and having responded to the Hotels request for my arrival date and flight details, got a response to call the Hotel on arrival. Like most non-US travellers I do not have a US phone, so I guess this Hotel only wants domestic bookings! Got to Houston at around 10.30pm and waited for 30 minutes for the shuttle BUT it did not show, so I took a cab. (BTW the cheapy half the price motel shuttles were all passing frequently). Got to the Hotel, one man working on the reception, with no baggage handling help .... this bit realy impressed me after a +30 hour flight. The best part of all though was yet to come, when I wrote to the Hotel with the above observations, and got a standard reply pointing out that the Hotel shuttle only runs from 5am-11pm (hello I was waiting for your at 10.30pm JIM) and that most US Holiday Inns do not have a bellman. Great show of interpersonal communication skills there from the General Manager, erm and NO Jim I shall not be staying in your low customer service hotel again, when you are charging a room rate that should guarantee a GREAT customer service. Avoid this hotel people as they have no idea of guest relations. You can do much better elsewhere in Houston, as I shall next time!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r389057001-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>389057001</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Very cute staff and great restaurant</t>
+  </si>
+  <si>
+    <t>The staff are very cute at this hotel, the guys from the shuttle bus are really friendly. The room was comfortable and clean. The best part was the restaurant, I went there twice in a 1 day 1/2 stay. The staff was very good and the food was superb!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1180,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1212,2019 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_355.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_355.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="390">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,58 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r609899979-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>8606295</t>
+  </si>
+  <si>
+    <t>609899979</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant enough stay esp for price.. reasonable distance from airport and surrounding restaurants i like to frequent when layed over in Houston , happy and helpful staff, clean and modern, no complaints! </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r601654098-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>601654098</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Contemporary Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was just beautiful!  I was very impressed with the modern contemporary design.   The staff was very friendly and helpful.  The girl that checked us in helped us out by scheduling a cab for our morning pick-up because we had a very early flight and needed to leave the hotel at 3:45am.  The room was immaculate and the bed and pillows were super comfortable!We ate at the restaurant and everyone loved the food!   Great stay and we would definitely stay here again and recommend it to others!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r600592832-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
-  </si>
-  <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>8606295</t>
   </si>
   <si>
     <t>600592832</t>
@@ -177,9 +219,6 @@
 The hotel is close to...This was not my best stay here.  Just before I got here their systems went down and we didn't have internet all evening.  This really affected me since I was here for business and I had things I had to get done but couldn't and had to deal with the ramifications the next day.I know it wasn't their fault but it did affect me greatly.  Still I think they knew at 4 or 5 PM that it would be down and I could have went to another Holiday Inn.  They kept saying it would be up in an hour and it was rebooting.  I did get a hand written message from the sales manager asking if there was anything they could do.  Well, other than buying my dinner or more drink cards no I needed internet.The room is nice and well equipped.  The shower is nice and great pressure.  The bed was firm but I like that.  Good choices of pillows.  Cable TV selections are below average but normal for hotels.  It was important this time since I didn't have Internet so the lack of channels really hurt.  Only thing I hate is the AC vent is up super high and blows right own you on your bed.  I had to drag a small setting table over to stand on it to try and adjust where it was blow.  I was marginally successful.The hotel is close to the airport (11 minutes) but nothing much to do or see unless you want to drive.  My first experience here was much better.  This stay was below average and really affected me.  Again, things happen.  I'll decide if I want to stay here next time when it comes up for me to travel to the Houston area.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -204,7 +243,31 @@
     <t xml:space="preserve">My daughter and I stayed one night when we had a long layover prior to an international flight. Located very close to the airport but seems to be a hard location for Uber drivers to find. If we had been more patient we could have just taken the airport shuttle. It departs every 30 minutes. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r585829174-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>585829174</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Amazing experience!</t>
+  </si>
+  <si>
+    <t>The best part is the FREE SHUTTLE ! FAST CHECK IN ! Great clean room! Over night staff was great! If you have a long layover this is the place to stay ! The shuttle leaves every hour and its free ! I didnt know that coming to the hotel so the taxi driver charged me $25 for a 2 mile drive ! make sure you dont make the same mistake as me and ask for the shuttle !MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded June 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2018</t>
+  </si>
+  <si>
+    <t>The best part is the FREE SHUTTLE ! FAST CHECK IN ! Great clean room! Over night staff was great! If you have a long layover this is the place to stay ! The shuttle leaves every hour and its free ! I didnt know that coming to the hotel so the taxi driver charged me $25 for a 2 mile drive ! make sure you dont make the same mistake as me and ask for the shuttle !More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r584907997-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
@@ -225,6 +288,46 @@
     <t>June 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r583030322-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>583030322</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>My hubby is staying there for business. I met him there last week. Friendly staff.Only compliant was pool was not clean. Had mud/sand on bottom of pool with bugs floating in it. My friend cleaned the pool twice. The pool area was very nice and quiet other than that</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r576685028-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>576685028</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent for a Layover</t>
+  </si>
+  <si>
+    <t>I had about 11 hours between my night flight into the Houston International Airport and my morning flight out, so chose this lodging for the layover, based on TA reviews. This fairly new hotel (about 1 year old) more than met my expectations. From the colorful, modern lobby to my room, everything was so clean that the entire place almost sparkled -- a first for me with airport stays. All the employees with whom I interacted proved to be polite, professional, friendly and helpful. I could not have asked for more from them. Amenities included a restaurant and a self-service laundry.
+My quiet, fourth-floor king room was spacious with an incredibly comfortable bed. It had excellent lighting; a chaise lounge; an iron and ironing board, which I had sorely missed during my past month in Europe; a microwave, coffee maker and small refrigerator; a safe; and plenty of drawer space. The nice bathroom featured a big walk-in shower, complete with a grab bar. I noted, however, a minor decor issue -- a couple of paint splatters on the front of the vanity. The room overlooked a parking lot, but I had come to sleep, not to admire a view.
+Free airport shuttle service is provided from 5 a.m. to 11 p.m. But I did not know that the shuttle comes to the airport on demand. So, based on past experience elsewhere, I went to the pickup area and waited for...I had about 11 hours between my night flight into the Houston International Airport and my morning flight out, so chose this lodging for the layover, based on TA reviews. This fairly new hotel (about 1 year old) more than met my expectations. From the colorful, modern lobby to my room, everything was so clean that the entire place almost sparkled -- a first for me with airport stays. All the employees with whom I interacted proved to be polite, professional, friendly and helpful. I could not have asked for more from them. Amenities included a restaurant and a self-service laundry.My quiet, fourth-floor king room was spacious with an incredibly comfortable bed. It had excellent lighting; a chaise lounge; an iron and ironing board, which I had sorely missed during my past month in Europe; a microwave, coffee maker and small refrigerator; a safe; and plenty of drawer space. The nice bathroom featured a big walk-in shower, complete with a grab bar. I noted, however, a minor decor issue -- a couple of paint splatters on the front of the vanity. The room overlooked a parking lot, but I had come to sleep, not to admire a view.Free airport shuttle service is provided from 5 a.m. to 11 p.m. But I did not know that the shuttle comes to the airport on demand. So, based on past experience elsewhere, I went to the pickup area and waited for at least 20 minutes for the shuttle to arrive. Finally I called and the shuttle came immediately, just before it closed down for the night. When I got to the hotel, I made a shuttle reservation for the next morning, and all went smoothly. It took about 5 minutes to drive from the hotel to my terminal.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I had about 11 hours between my night flight into the Houston International Airport and my morning flight out, so chose this lodging for the layover, based on TA reviews. This fairly new hotel (about 1 year old) more than met my expectations. From the colorful, modern lobby to my room, everything was so clean that the entire place almost sparkled -- a first for me with airport stays. All the employees with whom I interacted proved to be polite, professional, friendly and helpful. I could not have asked for more from them. Amenities included a restaurant and a self-service laundry.
+My quiet, fourth-floor king room was spacious with an incredibly comfortable bed. It had excellent lighting; a chaise lounge; an iron and ironing board, which I had sorely missed during my past month in Europe; a microwave, coffee maker and small refrigerator; a safe; and plenty of drawer space. The nice bathroom featured a big walk-in shower, complete with a grab bar. I noted, however, a minor decor issue -- a couple of paint splatters on the front of the vanity. The room overlooked a parking lot, but I had come to sleep, not to admire a view.
+Free airport shuttle service is provided from 5 a.m. to 11 p.m. But I did not know that the shuttle comes to the airport on demand. So, based on past experience elsewhere, I went to the pickup area and waited for...I had about 11 hours between my night flight into the Houston International Airport and my morning flight out, so chose this lodging for the layover, based on TA reviews. This fairly new hotel (about 1 year old) more than met my expectations. From the colorful, modern lobby to my room, everything was so clean that the entire place almost sparkled -- a first for me with airport stays. All the employees with whom I interacted proved to be polite, professional, friendly and helpful. I could not have asked for more from them. Amenities included a restaurant and a self-service laundry.My quiet, fourth-floor king room was spacious with an incredibly comfortable bed. It had excellent lighting; a chaise lounge; an iron and ironing board, which I had sorely missed during my past month in Europe; a microwave, coffee maker and small refrigerator; a safe; and plenty of drawer space. The nice bathroom featured a big walk-in shower, complete with a grab bar. I noted, however, a minor decor issue -- a couple of paint splatters on the front of the vanity. The room overlooked a parking lot, but I had come to sleep, not to admire a view.Free airport shuttle service is provided from 5 a.m. to 11 p.m. But I did not know that the shuttle comes to the airport on demand. So, based on past experience elsewhere, I went to the pickup area and waited for at least 20 minutes for the shuttle to arrive. Finally I called and the shuttle came immediately, just before it closed down for the night. When I got to the hotel, I made a shuttle reservation for the next morning, and all went smoothly. It took about 5 minutes to drive from the hotel to my terminal.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r569968378-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -297,6 +400,51 @@
     <t>I have stayed at this hotel for about 2 weeks, the personnel was friendly and very helpful. The room was clean and tidy. Of course there is nothing around the hotel to do. I was using the gym everyday.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r566147368-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>566147368</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hotel with high potential </t>
+  </si>
+  <si>
+    <t>This property is a fairly new hotel conveniently located near IAH, nicely decorated and modern.  The room was well appointed and the lobby surroundings were pleasant, just as seen in the pictures. The gym was basic and functional, nothing fancy but sufficient (free weights, bike, elliptical, and treadmills) .One disappointment is the hotel is not within walking distance of anything but a gas station.  While this is ok for a quick overnight, you are somewhat trapped without a car.I had booked a breakfast inclusive rate and was underwhelmed by the buffet, as well as the restaurant’s ability to accommodate my dietary preferences.  In hindsight my desire for plain oatmeal and green tea may have been expecting too much, but I can easily get this at a Hampton Inn or Holiday Inn Express.Management was receptive to my feedback so I have hopes this hotel can improve.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is a fairly new hotel conveniently located near IAH, nicely decorated and modern.  The room was well appointed and the lobby surroundings were pleasant, just as seen in the pictures. The gym was basic and functional, nothing fancy but sufficient (free weights, bike, elliptical, and treadmills) .One disappointment is the hotel is not within walking distance of anything but a gas station.  While this is ok for a quick overnight, you are somewhat trapped without a car.I had booked a breakfast inclusive rate and was underwhelmed by the buffet, as well as the restaurant’s ability to accommodate my dietary preferences.  In hindsight my desire for plain oatmeal and green tea may have been expecting too much, but I can easily get this at a Hampton Inn or Holiday Inn Express.Management was receptive to my feedback so I have hopes this hotel can improve.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r556722227-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>556722227</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent Value Choice for Bush Airport  Accommodation</t>
+  </si>
+  <si>
+    <t>Located in a quiet area just 1/4 mile north off of Will Clayton Blvd and near many park and ride facilities, we found this hotel very convenient for an overnight stay prior to an early morning flight. Barley one year old, this Inn is very modern, clean and well equipped.  Our east facing room on the 2nd floor provided a relaxing view of aircraft landing on runways 27 and 28 with no noise at all. Internet was very slow, but we were here for sleeping, not streaming.  The full service restaurant downstairs (open 5PM for dinner and 6AM for breakfast) was very convenient and the menu and draft beer selections were excellent.  Service is very prompt and friendly at front desk and restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Located in a quiet area just 1/4 mile north off of Will Clayton Blvd and near many park and ride facilities, we found this hotel very convenient for an overnight stay prior to an early morning flight. Barley one year old, this Inn is very modern, clean and well equipped.  Our east facing room on the 2nd floor provided a relaxing view of aircraft landing on runways 27 and 28 with no noise at all. Internet was very slow, but we were here for sleeping, not streaming.  The full service restaurant downstairs (open 5PM for dinner and 6AM for breakfast) was very convenient and the menu and draft beer selections were excellent.  Service is very prompt and friendly at front desk and restaurant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r555363794-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -330,9 +478,6 @@
     <t>Came to town to surprise my mom and chose this location. I almost booked a different location until I saw the pics. I was glad I stayed here the lobby is stunning and sheik and the rooms are very modern! The bar was a welcoming place after the bustle of flying in. This location is literally around the corner from IAH, I59 and conveniently located near Deerbrook Mall and any restaurant you could possibly think of. If you're traveling to the city and need a place to stay on the north end don't consider just book here!MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded January 17, 2018</t>
   </si>
   <si>
@@ -357,9 +502,6 @@
     <t>Great bed! I booked a King Leisure room.  I've stayed in many hotel airports that had no where to eat room service, or place to sit other than bed. This room was wonderful. Large desk, a nice chaise lounge with side table and reading lamp.  TV swiveled so you could see it from anywhere you sat in the room. Bench for suitcase, or sitting to put on shoes. Large closet. Only thing is was missing was a luggage rack in the closet. I didn't want to wake up and get out of the bed. It was so comfortable, and I'm finding I love Holiday Inns pillows- they provide 2 soft and 2 firm.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded January 5, 2018</t>
   </si>
   <si>
@@ -369,6 +511,39 @@
     <t>Great bed! I booked a King Leisure room.  I've stayed in many hotel airports that had no where to eat room service, or place to sit other than bed. This room was wonderful. Large desk, a nice chaise lounge with side table and reading lamp.  TV swiveled so you could see it from anywhere you sat in the room. Bench for suitcase, or sitting to put on shoes. Large closet. Only thing is was missing was a luggage rack in the closet. I didn't want to wake up and get out of the bed. It was so comfortable, and I'm finding I love Holiday Inns pillows- they provide 2 soft and 2 firm.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r546439836-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>546439836</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Nice quick stay</t>
+  </si>
+  <si>
+    <t>We had an overnight layover in Houston and stayed here for convenience.  They offer a free shuttle and we had a short wait before pick up, then a quick ride to the hotel.  The front desk staff was friendly, check in and out was quick and easy.  Our room was very quiet and comfortable, as was our bed.  We took advantage of the pool and sunshine which was enjoyable.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r544752319-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>544752319</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Comfy, conveniently close to airport</t>
+  </si>
+  <si>
+    <t>Stayed here one night. Convenient location for a stopover, 5 min shuttle ride from IAH, no airport noise, helpful and friendly staff, decent restaurant for dinner. Room had a comfy bed and good pillows, nice towels, clean all around. Good value for the dollar. Highly recommend it!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r540594046-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -423,6 +598,36 @@
     <t>I stayed there from Friday 11/3 to 11/5.On Saturday I left at 10am and came back at 3pm, and my room wasn't cleaned. I called the front desk and told them, and I said I will be leaving at 5pm again. The front desk said they would send someone after 5pm. No one came and cleaned, and when I told them the next day there was no apology either.The breakfast is just okay, more variety is needed. The wifi did not work at all in the room. The TV didn't either. Air Con is very noisy.It a beautiful looking hotel and very clean, but the people at the front desk need classes on customer service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r538874181-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>538874181</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Box standard hotel in middle of nowhere but ‘some’ good staff and food</t>
+  </si>
+  <si>
+    <t>Box standard hotel; box standard grub (compared to Texas) which is actually quite tasty and nice, especially steak and buffalo wings. Night Bar staff really pleasant, morning waitress really GREEDY for tips even with pre-paid food, VERY annoying and insulting, will request another hotel on my return for me and collegas and so  downgrade marks for hotel because of her greediness and bad WiFi . Yet the breakfast guy was not greedy like her - strange.Rooms Looks out into a lake and ugly warehouse called DGM where staff speed about site - so unsafe. WiFi very patchy and not working for two days. Bus pick up from airport patchy and had me waiting 1.5 hours. But hotel rooms space, okay shower, with tea and coffee so good. Good gym and okay swimming pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>Box standard hotel; box standard grub (compared to Texas) which is actually quite tasty and nice, especially steak and buffalo wings. Night Bar staff really pleasant, morning waitress really GREEDY for tips even with pre-paid food, VERY annoying and insulting, will request another hotel on my return for me and collegas and so  downgrade marks for hotel because of her greediness and bad WiFi . Yet the breakfast guy was not greedy like her - strange.Rooms Looks out into a lake and ugly warehouse called DGM where staff speed about site - so unsafe. WiFi very patchy and not working for two days. Bus pick up from airport patchy and had me waiting 1.5 hours. But hotel rooms space, okay shower, with tea and coffee so good. Good gym and okay swimming pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r538784762-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>538784762</t>
+  </si>
+  <si>
+    <t>Lovely modern Hotel</t>
+  </si>
+  <si>
+    <t>This hotel looks and smells brand new! Everything is pristine and contemporary in styling. Staff are welcoming and friendly. Rooms are very spacious and the bathroom is large and modern. On site bar and restaurant was good, although very cold! Air conditioning way too high! Location great literally 5 minutes from dozens of restaurants and shops. Thoroughly recommended.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r534968537-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -438,9 +643,6 @@
     <t>This is a new hotel and it’s located near the airport but unbelievably quite. Very clean amazing bathrooms and comfortable beds. It has a ton of plug ins for computers and phone. This will be my go to stay when in Humble. The restaurant food was good but I did not feel for the cost of the breakfast buffet it was worth the money. Which is like 11.00. We had to wait on food to be cooked and you get more a selection with The Holiday Inn Express locations. MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Y6204DYar, Public Relations Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded October 31, 2017</t>
   </si>
   <si>
@@ -492,6 +694,42 @@
     <t>This Holiday Inn is so nice that all others pale in comparison. We stayed there the night before my husband and I left for separate trips. They were so nice &amp; accommodating and got us the terminal on time and they are all very friendly. The restaurant is very helpful and made a grilled chicken salad that I could eat so I was happy. The front desk took my information so they would know when I was returning and could pick me up. The second night I was there, I was waiting for my spouse to fly in the next day and they kept me company. Eating alone is not my favorite but it was comfortable. This location is really attractive and reminded me of a higher level of hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r512739398-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>512739398</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Good airport hotel</t>
+  </si>
+  <si>
+    <t>I arrived at 1am and was greeted by a very cheerful and friendly receptionist. My frequent stayer status was recognized immediately and I was given my room key quickly. After a 24 hour trip door to door I was just yearning for the shower, so his efficiency was welcome. The room was bright and had a ceiling fan. That was perfect. I don't like having the a/c on full blast, so the fan helped keep things cool without using max a/c. The room was clean and modern. Bed was very comfortable. The bathroom was also very clean with a large walk-in shower. Wifi was good.Only complaint was the breakfast buffet...it was ok, but that was about all. It was something I would expect at a HIX. At a HI I expect a bit more....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I arrived at 1am and was greeted by a very cheerful and friendly receptionist. My frequent stayer status was recognized immediately and I was given my room key quickly. After a 24 hour trip door to door I was just yearning for the shower, so his efficiency was welcome. The room was bright and had a ceiling fan. That was perfect. I don't like having the a/c on full blast, so the fan helped keep things cool without using max a/c. The room was clean and modern. Bed was very comfortable. The bathroom was also very clean with a large walk-in shower. Wifi was good.Only complaint was the breakfast buffet...it was ok, but that was about all. It was something I would expect at a HIX. At a HI I expect a bit more....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r508757573-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>508757573</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Bright, cheery, very nice!</t>
+  </si>
+  <si>
+    <t>Convenient shuttle service from IAH. Friendly staff at check-in.  The hotel is modern, fresh, clean and bright.  Nice first impression.  My room was clean, nicely decorated and and very comfortable. No noise disturbances.  I had a very brief stay, and didn't eat or drink at the bar, but my stay was excellent.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r508499563-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -540,6 +778,36 @@
     <t>This is one of the best hotels with the best service we have stayed in!!--&amp; we have traveled the world and stayed in spectacular hotels! From the minute we checked in to our check out, everything was handled in an accommodating and caring way!! The food was delicious! All of the needs of our conference attendees and presenters were fulfilled--even with our last minute changes. The rooms were spotlessly clean and most comfortable. Loved the bed!! We HIGHLY recommend staying in this hotel!! You will enjoy it!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r496310639-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>496310639</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Two night stay</t>
+  </si>
+  <si>
+    <t>I was recognized as a spire ambassador and given an upgrade and 500 points. New hotel which has a real nice lobby and close to the airport(Bush). The room had a fridge, microwave and a nice tv. Room was spotless and had a Kurueg coffee maker.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r494104129-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>494104129</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Great Property with Easy Hotel Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great Holiday Inn with easy access to IAH, a very nice breakfast buffet and comfortable rooms that exceeded my expectations. The staff was fantastic. Definitely will repeat stay here. There is a pool, hot tub and the property also feels very secure. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r490782278-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -588,6 +856,47 @@
     <t>We were very pleased with this hotel. Arriving from the UK we wanted an overnight stop before we embarked on a road trip in the USA.One comment before I review, Trip Advisor seemed determined to show me another Holiday Inn for Houston international airport, so I hope fellow travellers get the opportunity to find this one.It is very convenient for the Airport, just a few minutes away. It runs pretty late, but if you are going to be late I suggest you contact the hotel beforehand. They are very helpful.The hotel is pretty new, about 12 months old, so everything was fresh and clean.My wife loved the towels.The rooms were comfortable and we liked the 'wet room' style shower.The restaurant was a nice good value restaurant with pleasant, helpful, servers.I give this 5 stars as an airport hotel and recommend it wholeheartedly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r481443916-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>481443916</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Great property but so so staff</t>
+  </si>
+  <si>
+    <t>I spent my last night of my business trip at this hotel, so I can get a decent night of sleep before early morning flight.
+I didn't take off any point for the lackluster service here.  The gentleman at the front desk seem cold and irritable, no matter how simple the question or request is.  I sense he may be a part of the management or ownership team, as he projected an arrogance contrary to the norm in hospitality industry.
+That said, the hotel is great!  It's a new build and the builder/designer took extra care to make sure it had good noise insulation.  The hotel is literally next to a runway across a little pond, and under the landing path, but room is free of plane noises.  It's one of the quietest airport hotel I stayed at in recent memory and I had a great night of sleep.
+Room is very modern and clean.  There were a ton of USB ports for charging your devices.   Desk lamp, alarm clock, bed light all had ample USB ports - even the microwave had a USB charging port!  Bed is also very comfortable and bathroom perfectly spotless.  The only thing I don't like is the TV in the room had HDMI ports disabled.  I wanted to use my computer to stream some video but there is no way change the TV input port to HDMI.
+All in all, this is a good...I spent my last night of my business trip at this hotel, so I can get a decent night of sleep before early morning flight.I didn't take off any point for the lackluster service here.  The gentleman at the front desk seem cold and irritable, no matter how simple the question or request is.  I sense he may be a part of the management or ownership team, as he projected an arrogance contrary to the norm in hospitality industry.That said, the hotel is great!  It's a new build and the builder/designer took extra care to make sure it had good noise insulation.  The hotel is literally next to a runway across a little pond, and under the landing path, but room is free of plane noises.  It's one of the quietest airport hotel I stayed at in recent memory and I had a great night of sleep.Room is very modern and clean.  There were a ton of USB ports for charging your devices.   Desk lamp, alarm clock, bed light all had ample USB ports - even the microwave had a USB charging port!  Bed is also very comfortable and bathroom perfectly spotless.  The only thing I don't like is the TV in the room had HDMI ports disabled.  I wanted to use my computer to stream some video but there is no way change the TV input port to HDMI.All in all, this is a good airport hotel and will definitely stay here again on my business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I spent my last night of my business trip at this hotel, so I can get a decent night of sleep before early morning flight.
+I didn't take off any point for the lackluster service here.  The gentleman at the front desk seem cold and irritable, no matter how simple the question or request is.  I sense he may be a part of the management or ownership team, as he projected an arrogance contrary to the norm in hospitality industry.
+That said, the hotel is great!  It's a new build and the builder/designer took extra care to make sure it had good noise insulation.  The hotel is literally next to a runway across a little pond, and under the landing path, but room is free of plane noises.  It's one of the quietest airport hotel I stayed at in recent memory and I had a great night of sleep.
+Room is very modern and clean.  There were a ton of USB ports for charging your devices.   Desk lamp, alarm clock, bed light all had ample USB ports - even the microwave had a USB charging port!  Bed is also very comfortable and bathroom perfectly spotless.  The only thing I don't like is the TV in the room had HDMI ports disabled.  I wanted to use my computer to stream some video but there is no way change the TV input port to HDMI.
+All in all, this is a good...I spent my last night of my business trip at this hotel, so I can get a decent night of sleep before early morning flight.I didn't take off any point for the lackluster service here.  The gentleman at the front desk seem cold and irritable, no matter how simple the question or request is.  I sense he may be a part of the management or ownership team, as he projected an arrogance contrary to the norm in hospitality industry.That said, the hotel is great!  It's a new build and the builder/designer took extra care to make sure it had good noise insulation.  The hotel is literally next to a runway across a little pond, and under the landing path, but room is free of plane noises.  It's one of the quietest airport hotel I stayed at in recent memory and I had a great night of sleep.Room is very modern and clean.  There were a ton of USB ports for charging your devices.   Desk lamp, alarm clock, bed light all had ample USB ports - even the microwave had a USB charging port!  Bed is also very comfortable and bathroom perfectly spotless.  The only thing I don't like is the TV in the room had HDMI ports disabled.  I wanted to use my computer to stream some video but there is no way change the TV input port to HDMI.All in all, this is a good airport hotel and will definitely stay here again on my business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r479755665-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>479755665</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>This was literally the nicest HI I've stayed in.  New facility with a nice restaurant and bar.  About 5 minutes off of the airport so convenient.  Will no doubt stay here again when in Houston.Room was immaculate, spacious and quiet.  A few local brews on tap and bottled.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r470437375-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -657,6 +966,36 @@
     <t>Spent a night here before traveling to Mexico the following day. The hotel is brand new and the rooms are comfortable, we furnished and functional.  The hotel boasts a modern decor with a nice bar/restaurant and very nice staff.  Nice stay, only complaint was a very average burger at the bar, but the bartender was first rate and very personable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r455306857-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>455306857</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaxing </t>
+  </si>
+  <si>
+    <t>Will after a long day delayed and missed flights we are settling in hete at Holiday Inn great customer service from front destination shuttle service and restaurant / bar over the top treat you so good</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r450458999-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>450458999</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Top of the Line Holiday Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This HI is top in its class. Everywhere you look, you can see the quality that the developer built into this facility. Top of the line beds are especially important to us. The windows have at least 3 panes or maybe 4 pains. The outside walls also must have extra sound deadening attributes because in the room you cannot hear any outside noise and this hotel is close to Bush Airport.  The bathrooms, the furniture, the public facilities everything is quality. The staff is well trained and added to a most enjoyable stay. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r449685699-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -702,6 +1041,36 @@
     <t>This hotel is so new that we had to ask to have the fold out bed unpacked from its transit bolts and packaging.We had a 1 bedroom suite, which was absolutely fantastic. You could easily live in it. As the hotel has only been open for 3 months there is nothing to criticise.The Texan welcome is strong. All the staff are helpful and courteous.All the public areas are beautiful.I hope to visit again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r438647155-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>438647155</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Not Your Ordinary Holiday Inn</t>
+  </si>
+  <si>
+    <t>This is a new hotel with new-age décor. Close to the airport, but quiet. Excellent staff, great rooms, and clean. The restaurant is ok with limited selection, but the food was good. I had dinner and breakfast there. The downside- they didn't have their liquor license yet. Also, though very nice, the hotel is in an industrial area with no other services or restaurants within walking distance. My stay was excellent and a good value for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r437803205-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>437803205</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Brand New Hotel</t>
+  </si>
+  <si>
+    <t>Easy access to the freeway and near the airport.  Great clean, beautiful hotel with a very welcoming staff.  Had a cab service there on time per our request.  The restaurant looked lovely, however we did not eat there due to prior commitments.  They are still awaiting their liquor license, so could not enjoy a beverage before our meeting.  The rooms were very clean and the lobby has very comfortable furniture with a great water feature.  Would definitely stay there again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r437631440-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
   </si>
   <si>
@@ -748,6 +1117,58 @@
   </si>
   <si>
     <t>This is a clean, and very new hotel. It still has that "new car smell", and is a clean and tidy property. We found the staff friendly and helpful too. Three things, however, you should know when booking here.First, getting the shuttle can be a little tricky. You are best advised to call this property when you land, and ask them to send a shuttle. Also - you need to know your arrival gate (A, B, C etc) otherwise it may go to the wrong place! Frustratingly, not every Holiday Inn shuttle will bring you here - the other properties are in a different direction.Secondly, there is no liquor licence here. That may not affect you, but if you want a beer with dinner you have to walk down the road to the service station and buy one. Apparently an application has been made for a licence. Thirdly, the location is really on its own, far from anywhere but long term car parking lots. Apart from the service station you will really be limited to the hotel - which isn't really an issue for an airport overnight stay. Another benefit is that it is an underpopulated property at the moment,so no problem getting a treadmill in the gym! Hope these tips help if you are considering staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r430175069-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>430175069</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Tried a new place and I regret my decision.</t>
+  </si>
+  <si>
+    <t>I usually stay at the HI on JFK Blvd when in Houston, but  thought I would give this newer property a try.  I like to drop my rental off the night before my early flight.  The HI I usually stay at picks me up form the rental center.  When I inquired here, they said there driver might get lost, so I needed to take the shuttle back to the terminal then call them and they would pick me up.  I drop the car, take rental shuttle to Terminal A and give them a call.  They said the shuttle was on its way back to the hotel with someone and they would come right back for me.  28 minutes later, the shuttle arrives!  The hotel is at most 10 minutes away!
+OK, So the room was pretty good, other than the long black hair on my soap dish in the shower!  The AC vent blows right onto the bed, so you either have to have the cold air blowing right on you or be warm.  The room did meet my stay preferences of top floor away from the elevator though.
+I then decided to go down for dinner at the Aviator's Bar &amp; Grill that according to their website has a "fully stocked Lounge Bar"  Once seated, they drop the menu off and then come back a few minutes later asking if I am ready to order.  I give them my...I usually stay at the HI on JFK Blvd when in Houston, but  thought I would give this newer property a try.  I like to drop my rental off the night before my early flight.  The HI I usually stay at picks me up form the rental center.  When I inquired here, they said there driver might get lost, so I needed to take the shuttle back to the terminal then call them and they would pick me up.  I drop the car, take rental shuttle to Terminal A and give them a call.  They said the shuttle was on its way back to the hotel with someone and they would come right back for me.  28 minutes later, the shuttle arrives!  The hotel is at most 10 minutes away!OK, So the room was pretty good, other than the long black hair on my soap dish in the shower!  The AC vent blows right onto the bed, so you either have to have the cold air blowing right on you or be warm.  The room did meet my stay preferences of top floor away from the elevator though.I then decided to go down for dinner at the Aviator's Bar &amp; Grill that according to their website has a "fully stocked Lounge Bar"  Once seated, they drop the menu off and then come back a few minutes later asking if I am ready to order.  I give them my order and then ask what they have on tap.  "We don't have alcohol" is the response I got!  Well, I am sure glad they are advertising their property truthfully.  The person who was seating people could really do with some customer service training as they did not feel greeting/acknowledging new customers was a priority.  The other person waiting tables was friendly and was truly trying.  They refilled my iced tea (since I could not have  beer!) promptly.  Once, the host filled my tea - of course, I was drinking sweetened tea and he filled it with unsweetened.  A little after the other server pointed out the mix up, the host offered to refill my tea, but never apologized.  Mistakes happen, but it is how you deal with them that counts.  The fries on my plate tasted as though they were made at the start of the shift and left under a poorly performing heat lamp.I should say that check in went well.  Also, upon entering my room, I found my clock had the wrong time - I tried to adjust it, but the clock does not allow the time to be changed.  I think that is good so customers cannot mess with it, but the cleaning staff should be making sure it is set correctly.  When I called down, two staff came right up, but had difficulties figuring it out.  The hotel is new and they are learning, so I had no problem with this whatsoever.  They had to go away and figure it out, but they did so and I really appreciated their prompt service.  These two staff understood customer service!Last week I almost booked a couple of more stays her for next month, but decided to wait until I tried it out.  Glad I waited so i did not have to cancel the reservations and re-book at another IHG.I know the place is new, but the some of the staff really need some training in the hospitality industry!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I usually stay at the HI on JFK Blvd when in Houston, but  thought I would give this newer property a try.  I like to drop my rental off the night before my early flight.  The HI I usually stay at picks me up form the rental center.  When I inquired here, they said there driver might get lost, so I needed to take the shuttle back to the terminal then call them and they would pick me up.  I drop the car, take rental shuttle to Terminal A and give them a call.  They said the shuttle was on its way back to the hotel with someone and they would come right back for me.  28 minutes later, the shuttle arrives!  The hotel is at most 10 minutes away!
+OK, So the room was pretty good, other than the long black hair on my soap dish in the shower!  The AC vent blows right onto the bed, so you either have to have the cold air blowing right on you or be warm.  The room did meet my stay preferences of top floor away from the elevator though.
+I then decided to go down for dinner at the Aviator's Bar &amp; Grill that according to their website has a "fully stocked Lounge Bar"  Once seated, they drop the menu off and then come back a few minutes later asking if I am ready to order.  I give them my...I usually stay at the HI on JFK Blvd when in Houston, but  thought I would give this newer property a try.  I like to drop my rental off the night before my early flight.  The HI I usually stay at picks me up form the rental center.  When I inquired here, they said there driver might get lost, so I needed to take the shuttle back to the terminal then call them and they would pick me up.  I drop the car, take rental shuttle to Terminal A and give them a call.  They said the shuttle was on its way back to the hotel with someone and they would come right back for me.  28 minutes later, the shuttle arrives!  The hotel is at most 10 minutes away!OK, So the room was pretty good, other than the long black hair on my soap dish in the shower!  The AC vent blows right onto the bed, so you either have to have the cold air blowing right on you or be warm.  The room did meet my stay preferences of top floor away from the elevator though.I then decided to go down for dinner at the Aviator's Bar &amp; Grill that according to their website has a "fully stocked Lounge Bar"  Once seated, they drop the menu off and then come back a few minutes later asking if I am ready to order.  I give them my order and then ask what they have on tap.  "We don't have alcohol" is the response I got!  Well, I am sure glad they are advertising their property truthfully.  The person who was seating people could really do with some customer service training as they did not feel greeting/acknowledging new customers was a priority.  The other person waiting tables was friendly and was truly trying.  They refilled my iced tea (since I could not have  beer!) promptly.  Once, the host filled my tea - of course, I was drinking sweetened tea and he filled it with unsweetened.  A little after the other server pointed out the mix up, the host offered to refill my tea, but never apologized.  Mistakes happen, but it is how you deal with them that counts.  The fries on my plate tasted as though they were made at the start of the shift and left under a poorly performing heat lamp.I should say that check in went well.  Also, upon entering my room, I found my clock had the wrong time - I tried to adjust it, but the clock does not allow the time to be changed.  I think that is good so customers cannot mess with it, but the cleaning staff should be making sure it is set correctly.  When I called down, two staff came right up, but had difficulties figuring it out.  The hotel is new and they are learning, so I had no problem with this whatsoever.  They had to go away and figure it out, but they did so and I really appreciated their prompt service.  These two staff understood customer service!Last week I almost booked a couple of more stays her for next month, but decided to wait until I tried it out.  Glad I waited so i did not have to cancel the reservations and re-book at another IHG.I know the place is new, but the some of the staff really need some training in the hospitality industry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r419991607-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>419991607</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night stayed </t>
+  </si>
+  <si>
+    <t>Im actually staying in this hotel as im writing this review. This hotel is brand new and very beautiful.  When you first walk inn the lobby area is very clean and pretty, to your left there's the restaurant and bar and it has a patio outside. The room is really nice and neat and the bed is really comfortable. Id recommend this hotel to anyone that just wants to get away from home or anyone coming into town for business. You'll love it here .  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Y6204DYar, Manager at Holiday Inn Houston NE - Bush Airport Area, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Im actually staying in this hotel as im writing this review. This hotel is brand new and very beautiful.  When you first walk inn the lobby area is very clean and pretty, to your left there's the restaurant and bar and it has a patio outside. The room is really nice and neat and the bed is really comfortable. Id recommend this hotel to anyone that just wants to get away from home or anyone coming into town for business. You'll love it here .  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d8606295-r406610342-Holiday_Inn_Houston_NE_Bush_Airport_Area-Humble_Texas.html</t>
@@ -1321,7 +1742,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1331,23 +1752,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1363,48 +1778,54 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1441,27 +1862,33 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1477,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1486,49 +1913,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1544,52 +1961,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1605,54 +2028,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1668,37 +2085,39 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
@@ -1709,7 +2128,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1725,56 +2144,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1790,42 +2201,42 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1835,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1857,54 +2268,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>120</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1920,44 +2329,54 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>123</v>
       </c>
-      <c r="J12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>126</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1973,54 +2392,44 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>128</v>
       </c>
-      <c r="J13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" t="s">
-        <v>131</v>
-      </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2036,52 +2445,56 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
         <v>133</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2097,56 +2510,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>143</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>147</v>
-      </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>140</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -2162,52 +2567,56 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
         <v>149</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>150</v>
-      </c>
-      <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" t="s">
-        <v>153</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -2223,46 +2632,56 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
         <v>156</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>157</v>
       </c>
-      <c r="J17" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" t="s">
-        <v>160</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
       <c r="Y17" t="s">
         <v>160</v>
       </c>
@@ -2280,48 +2699,54 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>162</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>163</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>164</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>165</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>166</v>
       </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>167</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -2337,19 +2762,19 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>168</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>169</v>
-      </c>
-      <c r="J19" t="s">
-        <v>164</v>
       </c>
       <c r="K19" t="s">
         <v>170</v>
@@ -2361,10 +2786,10 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2418,19 +2843,19 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2441,7 +2866,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -2457,7 +2882,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2466,26 +2891,22 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
-        <v>161</v>
-      </c>
-      <c r="O21" t="s">
-        <v>60</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -2498,7 +2919,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -2514,7 +2935,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2523,37 +2944,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2561,7 +2982,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -2577,7 +2998,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2586,45 +3007,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
@@ -2640,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2649,10 +3064,10 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
         <v>198</v>
@@ -2664,10 +3079,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2678,14 +3093,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>201</v>
-      </c>
-      <c r="X24" t="s">
-        <v>202</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
@@ -2701,58 +3112,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
         <v>204</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" t="s">
-        <v>207</v>
-      </c>
-      <c r="L25" t="s">
-        <v>208</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="X25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
@@ -2768,48 +3173,56 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>212</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>213</v>
-      </c>
-      <c r="K26" t="s">
-        <v>214</v>
-      </c>
-      <c r="L26" t="s">
-        <v>215</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>209</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X26" t="s">
+        <v>206</v>
+      </c>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
@@ -2825,34 +3238,34 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>216</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>217</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>218</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>219</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>220</v>
       </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>200</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2863,10 +3276,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>205</v>
+      </c>
+      <c r="X27" t="s">
+        <v>206</v>
+      </c>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -2882,7 +3299,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2891,35 +3308,37 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2927,7 +3346,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
@@ -2943,7 +3362,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -2952,39 +3371,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>227</v>
       </c>
-      <c r="J29" t="s">
-        <v>228</v>
-      </c>
-      <c r="K29" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" t="s">
-        <v>230</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>154</v>
-      </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
@@ -3000,7 +3425,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3009,43 +3434,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
@@ -3061,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3070,25 +3491,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3102,7 +3523,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -3118,52 +3539,48 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
         <v>242</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J32" t="s">
-        <v>244</v>
-      </c>
       <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>245</v>
       </c>
-      <c r="L32" t="s">
-        <v>246</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="s">
-        <v>247</v>
-      </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
@@ -3179,7 +3596,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3188,32 +3605,34 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3224,7 +3643,1390 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>239</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>300</v>
+      </c>
+      <c r="X41" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>308</v>
+      </c>
+      <c r="O42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>300</v>
+      </c>
+      <c r="X42" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" t="s">
+        <v>312</v>
+      </c>
+      <c r="K43" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>308</v>
+      </c>
+      <c r="O43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>308</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>308</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>299</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>220</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>220</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>220</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>220</v>
+      </c>
+      <c r="O50" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>350</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J51" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>220</v>
+      </c>
+      <c r="O52" t="s">
+        <v>106</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s">
+        <v>364</v>
+      </c>
+      <c r="L53" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" t="s">
+        <v>371</v>
+      </c>
+      <c r="L54" t="s">
+        <v>372</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>373</v>
+      </c>
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>374</v>
+      </c>
+      <c r="X54" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>377</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>378</v>
+      </c>
+      <c r="J55" t="s">
+        <v>379</v>
+      </c>
+      <c r="K55" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55" t="s">
+        <v>381</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>382</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63887</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
